--- a/data/lab/brix/brix_working_Sep11.xlsx
+++ b/data/lab/brix/brix_working_Sep11.xlsx
@@ -239,7 +239,7 @@
     <numFmt numFmtId="166" formatCode="m-d"/>
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -258,6 +258,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -308,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -360,6 +361,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -390,13 +394,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -4127,8 +4131,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="13">
-        <v>44818.0</v>
+      <c r="A127" s="17">
+        <v>44088.0</v>
       </c>
       <c r="B127" s="13">
         <v>44092.0</v>
@@ -4153,8 +4157,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="13">
-        <v>44818.0</v>
+      <c r="A128" s="17">
+        <v>44088.0</v>
       </c>
       <c r="B128" s="13">
         <v>44092.0</v>
@@ -4179,8 +4183,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="13">
-        <v>44818.0</v>
+      <c r="A129" s="17">
+        <v>44088.0</v>
       </c>
       <c r="B129" s="13">
         <v>44092.0</v>
@@ -4205,8 +4209,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="13">
-        <v>44818.0</v>
+      <c r="A130" s="17">
+        <v>44088.0</v>
       </c>
       <c r="B130" s="13">
         <v>44092.0</v>
@@ -4231,8 +4235,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="13">
-        <v>44818.0</v>
+      <c r="A131" s="17">
+        <v>44088.0</v>
       </c>
       <c r="B131" s="13">
         <v>44092.0</v>
@@ -4257,8 +4261,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="13">
-        <v>44818.0</v>
+      <c r="A132" s="17">
+        <v>44088.0</v>
       </c>
       <c r="B132" s="13">
         <v>44092.0</v>
@@ -4283,8 +4287,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="13">
-        <v>44818.0</v>
+      <c r="A133" s="17">
+        <v>44088.0</v>
       </c>
       <c r="B133" s="13">
         <v>44092.0</v>
@@ -4309,8 +4313,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="13">
-        <v>44818.0</v>
+      <c r="A134" s="17">
+        <v>44088.0</v>
       </c>
       <c r="B134" s="13">
         <v>44092.0</v>
@@ -4335,8 +4339,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="13">
-        <v>44818.0</v>
+      <c r="A135" s="17">
+        <v>44088.0</v>
       </c>
       <c r="B135" s="13">
         <v>44092.0</v>
@@ -4361,8 +4365,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="13">
-        <v>44818.0</v>
+      <c r="A136" s="17">
+        <v>44088.0</v>
       </c>
       <c r="B136" s="13">
         <v>44092.0</v>
@@ -4387,8 +4391,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="13">
-        <v>44818.0</v>
+      <c r="A137" s="17">
+        <v>44088.0</v>
       </c>
       <c r="B137" s="13">
         <v>44092.0</v>
@@ -4413,8 +4417,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="13">
-        <v>44819.0</v>
+      <c r="A138" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B138" s="13">
         <v>44092.0</v>
@@ -4442,8 +4446,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="13">
-        <v>44819.0</v>
+      <c r="A139" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B139" s="13">
         <v>44092.0</v>
@@ -4468,8 +4472,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="13">
-        <v>44819.0</v>
+      <c r="A140" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B140" s="13">
         <v>44092.0</v>
@@ -4494,8 +4498,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="13">
-        <v>44819.0</v>
+      <c r="A141" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B141" s="13">
         <v>44092.0</v>
@@ -4520,8 +4524,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="13">
-        <v>44819.0</v>
+      <c r="A142" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B142" s="13">
         <v>44092.0</v>
@@ -4546,8 +4550,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="13">
-        <v>44819.0</v>
+      <c r="A143" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B143" s="13">
         <v>44092.0</v>
@@ -4572,8 +4576,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="13">
-        <v>44819.0</v>
+      <c r="A144" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B144" s="13">
         <v>44092.0</v>
@@ -4598,8 +4602,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="13">
-        <v>44819.0</v>
+      <c r="A145" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B145" s="13">
         <v>44092.0</v>
@@ -4624,8 +4628,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="13">
-        <v>44819.0</v>
+      <c r="A146" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B146" s="13">
         <v>44092.0</v>
@@ -4650,8 +4654,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="13">
-        <v>44819.0</v>
+      <c r="A147" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B147" s="13">
         <v>44092.0</v>
@@ -4676,8 +4680,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="13">
-        <v>44819.0</v>
+      <c r="A148" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B148" s="13">
         <v>44092.0</v>
@@ -4702,8 +4706,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="13">
-        <v>44819.0</v>
+      <c r="A149" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B149" s="13">
         <v>44092.0</v>
@@ -4728,8 +4732,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="13">
-        <v>44819.0</v>
+      <c r="A150" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B150" s="13">
         <v>44092.0</v>
@@ -4754,8 +4758,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="13">
-        <v>44819.0</v>
+      <c r="A151" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B151" s="13">
         <v>44092.0</v>
@@ -4780,8 +4784,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="13">
-        <v>44819.0</v>
+      <c r="A152" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B152" s="13">
         <v>44092.0</v>
@@ -4806,8 +4810,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="13">
-        <v>44819.0</v>
+      <c r="A153" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B153" s="13">
         <v>44092.0</v>
@@ -4832,8 +4836,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="13">
-        <v>44819.0</v>
+      <c r="A154" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B154" s="13">
         <v>44092.0</v>
@@ -4861,8 +4865,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="13">
-        <v>44819.0</v>
+      <c r="A155" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B155" s="13">
         <v>44092.0</v>
@@ -4887,8 +4891,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="13">
-        <v>44819.0</v>
+      <c r="A156" s="17">
+        <v>44089.0</v>
       </c>
       <c r="B156" s="13">
         <v>44092.0</v>
@@ -4957,10 +4961,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>44083.0</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>44085.0</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -4984,10 +4988,10 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>44083.0</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>44085.0</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -5011,10 +5015,10 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>44083.0</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="18">
         <v>44085.0</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -5038,10 +5042,10 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>44083.0</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>44085.0</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -5065,10 +5069,10 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>44083.0</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>44085.0</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -5092,10 +5096,10 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="17">
+      <c r="A7" s="18">
         <v>44083.0</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <v>44085.0</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -5119,10 +5123,10 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="17">
+      <c r="A8" s="18">
         <v>44083.0</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="18">
         <v>44085.0</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -5146,10 +5150,10 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="A9" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B9" s="19">
         <v>44089.0</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -5172,10 +5176,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="A10" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B10" s="19">
         <v>44089.0</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -5198,10 +5202,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B11" s="19">
         <v>44089.0</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -5224,10 +5228,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="A12" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B12" s="19">
         <v>44089.0</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -5250,10 +5254,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B13" s="19">
         <v>44089.0</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -5276,10 +5280,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="A14" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B14" s="19">
         <v>44089.0</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -5302,16 +5306,16 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="A15" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B15" s="19">
         <v>44089.0</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="20">
         <v>1.0</v>
       </c>
       <c r="E15" s="5">
@@ -5328,10 +5332,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B16" s="18">
+      <c r="A16" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B16" s="19">
         <v>44089.0</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -5354,10 +5358,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B17" s="18">
+      <c r="A17" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B17" s="19">
         <v>44089.0</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -5380,10 +5384,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="A18" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B18" s="19">
         <v>44089.0</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -5406,10 +5410,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B19" s="18">
+      <c r="A19" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B19" s="19">
         <v>44089.0</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -5435,10 +5439,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B20" s="18">
+      <c r="A20" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B20" s="19">
         <v>44089.0</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -5461,10 +5465,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B21" s="18">
+      <c r="A21" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B21" s="19">
         <v>44089.0</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -5490,10 +5494,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B22" s="18">
+      <c r="A22" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B22" s="19">
         <v>44089.0</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -5519,10 +5523,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B23" s="18">
+      <c r="A23" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B23" s="19">
         <v>44089.0</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -5548,10 +5552,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B24" s="18">
+      <c r="A24" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B24" s="19">
         <v>44089.0</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -5577,10 +5581,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B25" s="18">
+      <c r="A25" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B25" s="19">
         <v>44089.0</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -5606,10 +5610,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B26" s="18">
+      <c r="A26" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B26" s="19">
         <v>44089.0</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -5635,10 +5639,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B27" s="18">
+      <c r="A27" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B27" s="19">
         <v>44089.0</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -5664,10 +5668,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B28" s="18">
+      <c r="A28" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B28" s="19">
         <v>44089.0</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -5693,10 +5697,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B29" s="18">
+      <c r="A29" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B29" s="19">
         <v>44089.0</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -5711,7 +5715,7 @@
       <c r="F29" s="5">
         <v>368.0</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="21">
         <v>20.0</v>
       </c>
       <c r="H29" s="10" t="s">
@@ -5722,10 +5726,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B30" s="18">
+      <c r="A30" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B30" s="19">
         <v>44089.0</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -5751,10 +5755,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B31" s="18">
+      <c r="A31" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B31" s="19">
         <v>44089.0</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -5780,10 +5784,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B32" s="18">
+      <c r="A32" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B32" s="19">
         <v>44089.0</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -5809,10 +5813,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B33" s="18">
+      <c r="A33" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B33" s="19">
         <v>44089.0</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -5838,10 +5842,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B34" s="18">
+      <c r="A34" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B34" s="19">
         <v>44089.0</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -5867,10 +5871,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B35" s="18">
+      <c r="A35" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B35" s="19">
         <v>44089.0</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -5896,10 +5900,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B36" s="18">
+      <c r="A36" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B36" s="19">
         <v>44089.0</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -5925,10 +5929,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B37" s="18">
+      <c r="A37" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B37" s="19">
         <v>44089.0</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -5954,10 +5958,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B38" s="18">
+      <c r="A38" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B38" s="19">
         <v>44089.0</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -5983,10 +5987,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B39" s="18">
+      <c r="A39" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B39" s="19">
         <v>44089.0</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -6012,10 +6016,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B40" s="18">
+      <c r="A40" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B40" s="19">
         <v>44089.0</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -6041,10 +6045,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B41" s="18">
+      <c r="A41" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B41" s="19">
         <v>44089.0</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -6070,10 +6074,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B42" s="18">
+      <c r="A42" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B42" s="19">
         <v>44089.0</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -6099,10 +6103,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B43" s="18">
+      <c r="A43" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B43" s="19">
         <v>44089.0</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -6128,10 +6132,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B44" s="18">
+      <c r="A44" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B44" s="19">
         <v>44089.0</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -6157,10 +6161,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B45" s="18">
+      <c r="A45" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B45" s="19">
         <v>44089.0</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -6186,10 +6190,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B46" s="18">
+      <c r="A46" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B46" s="19">
         <v>44089.0</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -6215,10 +6219,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B47" s="18">
+      <c r="A47" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B47" s="19">
         <v>44089.0</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -6244,10 +6248,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B48" s="18">
+      <c r="A48" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B48" s="19">
         <v>44089.0</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -6273,10 +6277,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B49" s="18">
+      <c r="A49" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B49" s="19">
         <v>44089.0</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -6302,10 +6306,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B50" s="18">
+      <c r="A50" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B50" s="19">
         <v>44089.0</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -6331,10 +6335,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B51" s="18">
+      <c r="A51" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B51" s="19">
         <v>44089.0</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -6360,16 +6364,16 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B52" s="18">
+      <c r="A52" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B52" s="19">
         <v>44089.0</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="20">
         <v>1.0</v>
       </c>
       <c r="E52" s="5">
@@ -6389,10 +6393,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B53" s="18">
+      <c r="A53" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B53" s="19">
         <v>44089.0</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -6418,10 +6422,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B54" s="18">
+      <c r="A54" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B54" s="19">
         <v>44089.0</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -6447,10 +6451,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B55" s="18">
+      <c r="A55" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B55" s="19">
         <v>44089.0</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -6476,10 +6480,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B56" s="18">
+      <c r="A56" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B56" s="19">
         <v>44089.0</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -6505,16 +6509,16 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B57" s="18">
+      <c r="A57" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B57" s="19">
         <v>44092.0</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="20">
         <v>1.0</v>
       </c>
       <c r="E57" s="5">
@@ -6531,16 +6535,16 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B58" s="18">
+      <c r="A58" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B58" s="19">
         <v>44092.0</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="20">
         <v>1.0</v>
       </c>
       <c r="E58" s="5">
@@ -6557,16 +6561,16 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B59" s="18">
+      <c r="A59" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B59" s="19">
         <v>44092.0</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="5">
@@ -6583,16 +6587,16 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B60" s="18">
+      <c r="A60" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B60" s="19">
         <v>44092.0</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="5">
@@ -6609,16 +6613,16 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B61" s="18">
+      <c r="A61" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B61" s="19">
         <v>44092.0</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E61" s="5">
@@ -6635,16 +6639,16 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B62" s="18">
+      <c r="A62" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B62" s="19">
         <v>44092.0</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="5">
@@ -6661,16 +6665,16 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B63" s="18">
+      <c r="A63" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B63" s="19">
         <v>44092.0</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="5">
@@ -6679,7 +6683,7 @@
       <c r="F63" s="5">
         <v>289.0</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="22">
         <v>20.0</v>
       </c>
       <c r="H63" s="10" t="s">
@@ -6690,16 +6694,16 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B64" s="18">
+      <c r="A64" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B64" s="19">
         <v>44092.0</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="20">
         <v>1.0</v>
       </c>
       <c r="E64" s="5">
@@ -6708,7 +6712,7 @@
       <c r="F64" s="5">
         <v>968.0</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G64" s="22">
         <v>21.5</v>
       </c>
       <c r="H64" s="10" t="s">
@@ -6716,16 +6720,16 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="18">
+      <c r="A65" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="19">
         <v>44092.0</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="23">
         <v>44051.0</v>
       </c>
       <c r="E65" s="5">
@@ -6734,7 +6738,7 @@
       <c r="F65" s="5">
         <v>858.0</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="22">
         <v>21.7</v>
       </c>
       <c r="H65" s="10" t="s">
@@ -6742,16 +6746,16 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="18">
+      <c r="A66" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="19">
         <v>44092.0</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="23">
         <v>44051.0</v>
       </c>
       <c r="E66" s="5">
@@ -6760,7 +6764,7 @@
       <c r="F66" s="5">
         <v>859.0</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G66" s="22">
         <v>22.2</v>
       </c>
       <c r="H66" s="10" t="s">
@@ -6771,16 +6775,16 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="18">
+      <c r="A67" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="19">
         <v>44092.0</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="23">
         <v>44051.0</v>
       </c>
       <c r="E67" s="5">
@@ -6789,7 +6793,7 @@
       <c r="F67" s="5">
         <v>860.0</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G67" s="22">
         <v>21.9</v>
       </c>
       <c r="H67" s="10" t="s">
@@ -6797,16 +6801,16 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="18">
+      <c r="A68" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="19">
         <v>44092.0</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="23">
         <v>44051.0</v>
       </c>
       <c r="E68" s="5">
@@ -6815,7 +6819,7 @@
       <c r="F68" s="5">
         <v>861.0</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G68" s="22">
         <v>21.6</v>
       </c>
       <c r="H68" s="10" t="s">
@@ -6823,16 +6827,16 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="18">
+      <c r="A69" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="19">
         <v>44092.0</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="23">
         <v>44051.0</v>
       </c>
       <c r="E69" s="5">
@@ -6841,7 +6845,7 @@
       <c r="F69" s="5">
         <v>862.0</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G69" s="22">
         <v>22.9</v>
       </c>
       <c r="H69" s="10" t="s">
@@ -6849,16 +6853,16 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="18">
+      <c r="A70" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="19">
         <v>44092.0</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="23">
         <v>44051.0</v>
       </c>
       <c r="E70" s="5">
@@ -6867,7 +6871,7 @@
       <c r="F70" s="5">
         <v>842.0</v>
       </c>
-      <c r="G70" s="21">
+      <c r="G70" s="22">
         <v>19.0</v>
       </c>
       <c r="H70" s="10" t="s">
@@ -6875,16 +6879,16 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="18">
+      <c r="A71" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="19">
         <v>44092.0</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="23">
         <v>44051.0</v>
       </c>
       <c r="E71" s="5">
@@ -6893,7 +6897,7 @@
       <c r="F71" s="5">
         <v>843.0</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G71" s="22">
         <v>21.0</v>
       </c>
       <c r="H71" s="10" t="s">
@@ -6901,16 +6905,16 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="18">
+      <c r="A72" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="19">
         <v>44092.0</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="23">
         <v>44051.0</v>
       </c>
       <c r="E72" s="5">
@@ -6919,7 +6923,7 @@
       <c r="F72" s="5">
         <v>844.0</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G72" s="22">
         <v>18.9</v>
       </c>
       <c r="H72" s="10" t="s">
@@ -6927,16 +6931,16 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B73" s="18">
+      <c r="A73" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B73" s="19">
         <v>44092.0</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="23">
         <v>43893.0</v>
       </c>
       <c r="E73" s="5">
@@ -6945,7 +6949,7 @@
       <c r="F73" s="5">
         <v>754.0</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="22">
         <v>20.9</v>
       </c>
       <c r="H73" s="10" t="s">
@@ -6953,16 +6957,16 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B74" s="18">
+      <c r="A74" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B74" s="19">
         <v>44092.0</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="23">
         <v>43893.0</v>
       </c>
       <c r="E74" s="5">
@@ -6971,7 +6975,7 @@
       <c r="F74" s="5">
         <v>756.0</v>
       </c>
-      <c r="G74" s="21">
+      <c r="G74" s="22">
         <v>23.3</v>
       </c>
       <c r="H74" s="10" t="s">
@@ -6979,16 +6983,16 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B75" s="18">
+      <c r="A75" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B75" s="19">
         <v>44092.0</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="23">
         <v>43955.0</v>
       </c>
       <c r="E75" s="5">
@@ -6997,7 +7001,7 @@
       <c r="F75" s="5">
         <v>669.0</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G75" s="22">
         <v>19.0</v>
       </c>
       <c r="H75" s="10" t="s">
@@ -7008,16 +7012,16 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B76" s="18">
+      <c r="A76" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B76" s="19">
         <v>44092.0</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="23">
         <v>43955.0</v>
       </c>
       <c r="E76" s="5">
@@ -7026,7 +7030,7 @@
       <c r="F76" s="5">
         <v>652.0</v>
       </c>
-      <c r="G76" s="21">
+      <c r="G76" s="22">
         <v>20.8</v>
       </c>
       <c r="H76" s="10" t="s">
@@ -7034,16 +7038,16 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B77" s="18">
+      <c r="A77" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B77" s="19">
         <v>44092.0</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="23">
         <v>43955.0</v>
       </c>
       <c r="E77" s="5">
@@ -7052,7 +7056,7 @@
       <c r="F77" s="5">
         <v>659.0</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G77" s="22">
         <v>21.6</v>
       </c>
       <c r="H77" s="10" t="s">
@@ -7060,16 +7064,16 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B78" s="18">
+      <c r="A78" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B78" s="19">
         <v>44092.0</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="23">
         <v>43955.0</v>
       </c>
       <c r="E78" s="5">
@@ -7078,7 +7082,7 @@
       <c r="F78" s="5">
         <v>660.0</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G78" s="22">
         <v>21.4</v>
       </c>
       <c r="H78" s="5" t="s">
@@ -7086,16 +7090,16 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="18">
+      <c r="A79" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B79" s="19">
         <v>44092.0</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="23">
         <v>43862.0</v>
       </c>
       <c r="E79" s="5">
@@ -7104,7 +7108,7 @@
       <c r="F79" s="5">
         <v>613.0</v>
       </c>
-      <c r="G79" s="21">
+      <c r="G79" s="22">
         <v>21.0</v>
       </c>
       <c r="H79" s="5" t="s">
@@ -7112,16 +7116,16 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="18">
+      <c r="A80" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="19">
         <v>44092.0</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="23">
         <v>43862.0</v>
       </c>
       <c r="E80" s="5">
@@ -7130,7 +7134,7 @@
       <c r="F80" s="5">
         <v>614.0</v>
       </c>
-      <c r="G80" s="21">
+      <c r="G80" s="22">
         <v>19.9</v>
       </c>
       <c r="H80" s="5" t="s">
@@ -7138,16 +7142,16 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="18">
+      <c r="A81" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B81" s="18">
+      <c r="B81" s="19">
         <v>44092.0</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="22">
+      <c r="D81" s="23">
         <v>43862.0</v>
       </c>
       <c r="E81" s="5">
@@ -7156,7 +7160,7 @@
       <c r="F81" s="5">
         <v>615.0</v>
       </c>
-      <c r="G81" s="21">
+      <c r="G81" s="22">
         <v>21.1</v>
       </c>
       <c r="H81" s="5" t="s">
@@ -7164,16 +7168,16 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="18">
+      <c r="A82" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B82" s="18">
+      <c r="B82" s="19">
         <v>44092.0</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D82" s="22">
+      <c r="D82" s="23">
         <v>43862.0</v>
       </c>
       <c r="E82" s="5">
@@ -7182,7 +7186,7 @@
       <c r="F82" s="5">
         <v>616.0</v>
       </c>
-      <c r="G82" s="21">
+      <c r="G82" s="22">
         <v>19.8</v>
       </c>
       <c r="H82" s="5" t="s">
@@ -7190,16 +7194,16 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="18">
+      <c r="A83" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B83" s="18">
+      <c r="B83" s="19">
         <v>44092.0</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D83" s="23">
         <v>43862.0</v>
       </c>
       <c r="E83" s="5">
@@ -7208,7 +7212,7 @@
       <c r="F83" s="5">
         <v>618.0</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G83" s="22">
         <v>17.4</v>
       </c>
       <c r="H83" s="5" t="s">
@@ -7216,16 +7220,16 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="18">
+      <c r="A84" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B84" s="18">
+      <c r="B84" s="19">
         <v>44092.0</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="22">
+      <c r="D84" s="23">
         <v>43862.0</v>
       </c>
       <c r="E84" s="5">
@@ -7234,7 +7238,7 @@
       <c r="F84" s="5">
         <v>617.0</v>
       </c>
-      <c r="G84" s="21">
+      <c r="G84" s="22">
         <v>19.7</v>
       </c>
       <c r="H84" s="5" t="s">
@@ -7242,16 +7246,16 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="18">
+      <c r="A85" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B85" s="18">
+      <c r="B85" s="19">
         <v>44092.0</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="23">
         <v>43862.0</v>
       </c>
       <c r="E85" s="5">
@@ -7260,7 +7264,7 @@
       <c r="F85" s="5">
         <v>624.0</v>
       </c>
-      <c r="G85" s="21">
+      <c r="G85" s="22">
         <v>19.8</v>
       </c>
       <c r="H85" s="5" t="s">
@@ -7268,16 +7272,16 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="18">
+      <c r="A86" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B86" s="18">
+      <c r="B86" s="19">
         <v>44092.0</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="22">
+      <c r="D86" s="23">
         <v>43862.0</v>
       </c>
       <c r="E86" s="5">
@@ -7286,7 +7290,7 @@
       <c r="F86" s="5">
         <v>623.0</v>
       </c>
-      <c r="G86" s="21">
+      <c r="G86" s="22">
         <v>19.0</v>
       </c>
       <c r="H86" s="5" t="s">
@@ -7294,16 +7298,16 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="18">
+      <c r="A87" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B87" s="18">
+      <c r="B87" s="19">
         <v>44092.0</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="23">
         <v>43862.0</v>
       </c>
       <c r="E87" s="5">
@@ -7312,7 +7316,7 @@
       <c r="F87" s="5">
         <v>622.0</v>
       </c>
-      <c r="G87" s="21">
+      <c r="G87" s="22">
         <v>20.4</v>
       </c>
       <c r="H87" s="5" t="s">
@@ -7320,16 +7324,16 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="18">
+      <c r="A88" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B88" s="18">
+      <c r="B88" s="19">
         <v>44092.0</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D88" s="23">
         <v>43862.0</v>
       </c>
       <c r="E88" s="5">
@@ -7338,7 +7342,7 @@
       <c r="F88" s="5">
         <v>621.0</v>
       </c>
-      <c r="G88" s="21">
+      <c r="G88" s="22">
         <v>20.5</v>
       </c>
       <c r="H88" s="5" t="s">
@@ -7346,16 +7350,16 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="18">
+      <c r="A89" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B89" s="18">
+      <c r="B89" s="19">
         <v>44092.0</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D89" s="23">
         <v>43862.0</v>
       </c>
       <c r="E89" s="5">
@@ -7364,7 +7368,7 @@
       <c r="F89" s="5">
         <v>620.0</v>
       </c>
-      <c r="G89" s="21">
+      <c r="G89" s="22">
         <v>19.7</v>
       </c>
       <c r="H89" s="5" t="s">
@@ -7372,16 +7376,16 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="18">
+      <c r="A90" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B90" s="18">
+      <c r="B90" s="19">
         <v>44092.0</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D90" s="23">
         <v>43862.0</v>
       </c>
       <c r="E90" s="5">
@@ -7390,7 +7394,7 @@
       <c r="F90" s="5">
         <v>619.0</v>
       </c>
-      <c r="G90" s="21">
+      <c r="G90" s="22">
         <v>17.4</v>
       </c>
       <c r="H90" s="5" t="s">
@@ -7398,16 +7402,16 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B91" s="18">
+      <c r="A91" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B91" s="19">
         <v>44092.0</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D91" s="23">
         <v>43983.0</v>
       </c>
       <c r="E91" s="5">
@@ -7416,7 +7420,7 @@
       <c r="F91" s="5">
         <v>674.0</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="22">
         <v>19.0</v>
       </c>
       <c r="H91" s="5" t="s">
@@ -7424,16 +7428,16 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B92" s="18">
+      <c r="A92" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B92" s="19">
         <v>44092.0</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="23">
         <v>43983.0</v>
       </c>
       <c r="E92" s="5">
@@ -7442,7 +7446,7 @@
       <c r="F92" s="5">
         <v>675.0</v>
       </c>
-      <c r="G92" s="21">
+      <c r="G92" s="22">
         <v>18.8</v>
       </c>
       <c r="H92" s="5" t="s">
@@ -7450,16 +7454,16 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="18">
+      <c r="A93" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B93" s="18">
+      <c r="B93" s="19">
         <v>44092.0</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="23">
         <v>44075.0</v>
       </c>
       <c r="E93" s="5">
@@ -7476,16 +7480,16 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="18">
+      <c r="A94" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B94" s="18">
+      <c r="B94" s="19">
         <v>44092.0</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D94" s="23">
         <v>44075.0</v>
       </c>
       <c r="E94" s="5">
@@ -7502,16 +7506,16 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="18">
+      <c r="A95" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B95" s="18">
+      <c r="B95" s="19">
         <v>44092.0</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="23">
         <v>44075.0</v>
       </c>
       <c r="E95" s="5">
@@ -7528,16 +7532,16 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="18">
+      <c r="A96" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B96" s="18">
+      <c r="B96" s="19">
         <v>44092.0</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="23">
         <v>44075.0</v>
       </c>
       <c r="E96" s="5">
@@ -7554,16 +7558,16 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="18">
+      <c r="A97" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B97" s="18">
+      <c r="B97" s="19">
         <v>44092.0</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="23">
         <v>44075.0</v>
       </c>
       <c r="E97" s="5">
@@ -7580,16 +7584,16 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="18">
+      <c r="A98" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B98" s="18">
+      <c r="B98" s="19">
         <v>44092.0</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="23">
         <v>44075.0</v>
       </c>
       <c r="E98" s="5">
@@ -7606,16 +7610,16 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="18">
+      <c r="A99" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B99" s="18">
+      <c r="B99" s="19">
         <v>44092.0</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="23">
         <v>44075.0</v>
       </c>
       <c r="E99" s="5">
@@ -7632,16 +7636,16 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="18">
+      <c r="A100" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B100" s="18">
+      <c r="B100" s="19">
         <v>44092.0</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D100" s="23">
         <v>44075.0</v>
       </c>
       <c r="E100" s="5">
@@ -7658,16 +7662,16 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="18">
+      <c r="A101" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B101" s="18">
+      <c r="B101" s="19">
         <v>44092.0</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="22">
+      <c r="D101" s="23">
         <v>44075.0</v>
       </c>
       <c r="E101" s="5">
@@ -7684,16 +7688,16 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="18">
+      <c r="A102" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B102" s="18">
+      <c r="B102" s="19">
         <v>44092.0</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="22">
+      <c r="D102" s="23">
         <v>44075.0</v>
       </c>
       <c r="E102" s="5">
@@ -7710,16 +7714,16 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="18">
+      <c r="A103" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B103" s="18">
+      <c r="B103" s="19">
         <v>44092.0</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D103" s="22">
+      <c r="D103" s="23">
         <v>44075.0</v>
       </c>
       <c r="E103" s="5">
@@ -7736,16 +7740,16 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="18">
+      <c r="A104" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B104" s="18">
+      <c r="B104" s="19">
         <v>44092.0</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D104" s="22">
+      <c r="D104" s="23">
         <v>44075.0</v>
       </c>
       <c r="E104" s="5">
@@ -7762,16 +7766,16 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="18">
+      <c r="A105" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B105" s="18">
+      <c r="B105" s="19">
         <v>44092.0</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D105" s="22">
+      <c r="D105" s="23">
         <v>44075.0</v>
       </c>
       <c r="E105" s="5">
@@ -7788,16 +7792,16 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B106" s="18">
+      <c r="A106" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B106" s="19">
         <v>44092.0</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D106" s="22">
+      <c r="D106" s="23">
         <v>43983.0</v>
       </c>
       <c r="E106" s="5">
@@ -7814,16 +7818,16 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="18">
+      <c r="A107" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B107" s="18">
+      <c r="B107" s="19">
         <v>44092.0</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D107" s="22">
+      <c r="D107" s="23">
         <v>43836.0</v>
       </c>
       <c r="E107" s="5">
@@ -7832,7 +7836,7 @@
       <c r="F107" s="5">
         <v>578.0</v>
       </c>
-      <c r="G107" s="21">
+      <c r="G107" s="22">
         <v>24.0</v>
       </c>
       <c r="H107" s="5" t="s">
@@ -7840,16 +7844,16 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B108" s="18">
+      <c r="A108" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B108" s="19">
         <v>44092.0</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D108" s="22">
+      <c r="D108" s="23">
         <v>43955.0</v>
       </c>
       <c r="E108" s="5">
@@ -7858,7 +7862,7 @@
       <c r="F108" s="5">
         <v>671.0</v>
       </c>
-      <c r="G108" s="21">
+      <c r="G108" s="22">
         <v>20.4</v>
       </c>
       <c r="H108" s="5" t="s">
@@ -7866,16 +7870,16 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B109" s="18">
+      <c r="A109" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B109" s="19">
         <v>44092.0</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D109" s="22">
+      <c r="D109" s="23">
         <v>43955.0</v>
       </c>
       <c r="E109" s="5">
@@ -7884,7 +7888,7 @@
       <c r="F109" s="5">
         <v>670.0</v>
       </c>
-      <c r="G109" s="21">
+      <c r="G109" s="22">
         <v>19.9</v>
       </c>
       <c r="H109" s="5" t="s">
@@ -7892,16 +7896,16 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B110" s="18">
+      <c r="A110" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B110" s="19">
         <v>44092.0</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D110" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E110" s="5">
@@ -7910,7 +7914,7 @@
       <c r="F110" s="5">
         <v>808.0</v>
       </c>
-      <c r="G110" s="21">
+      <c r="G110" s="22">
         <v>20.3</v>
       </c>
       <c r="H110" s="5" t="s">
@@ -7918,16 +7922,16 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B111" s="18">
+      <c r="A111" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B111" s="19">
         <v>44092.0</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D111" s="22">
+      <c r="D111" s="23">
         <v>43983.0</v>
       </c>
       <c r="E111" s="5">
@@ -7936,7 +7940,7 @@
       <c r="F111" s="5">
         <v>703.0</v>
       </c>
-      <c r="G111" s="21">
+      <c r="G111" s="22">
         <v>20.1</v>
       </c>
       <c r="H111" s="5" t="s">
@@ -7944,16 +7948,16 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="18">
+      <c r="A112" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B112" s="18">
+      <c r="B112" s="19">
         <v>44092.0</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="22">
+      <c r="D112" s="23">
         <v>43836.0</v>
       </c>
       <c r="E112" s="5">
@@ -7962,7 +7966,7 @@
       <c r="F112" s="5">
         <v>582.0</v>
       </c>
-      <c r="G112" s="21">
+      <c r="G112" s="22">
         <v>17.6</v>
       </c>
       <c r="H112" s="5" t="s">
@@ -7970,16 +7974,16 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="18">
+      <c r="A113" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B113" s="18">
+      <c r="B113" s="19">
         <v>44092.0</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D113" s="22">
+      <c r="D113" s="23">
         <v>43836.0</v>
       </c>
       <c r="E113" s="5">
@@ -7988,7 +7992,7 @@
       <c r="F113" s="5">
         <v>580.0</v>
       </c>
-      <c r="G113" s="21">
+      <c r="G113" s="22">
         <v>23.2</v>
       </c>
       <c r="H113" s="5" t="s">
@@ -7996,16 +8000,16 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="18">
+      <c r="A114" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B114" s="18">
+      <c r="B114" s="19">
         <v>44092.0</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="22">
+      <c r="D114" s="23">
         <v>43836.0</v>
       </c>
       <c r="E114" s="5">
@@ -8014,7 +8018,7 @@
       <c r="F114" s="5">
         <v>581.0</v>
       </c>
-      <c r="G114" s="21">
+      <c r="G114" s="22">
         <v>22.0</v>
       </c>
       <c r="H114" s="5" t="s">
@@ -8022,16 +8026,16 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="18">
+      <c r="A115" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B115" s="18">
+      <c r="B115" s="19">
         <v>44092.0</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D115" s="22">
+      <c r="D115" s="23">
         <v>43836.0</v>
       </c>
       <c r="E115" s="5">
@@ -8040,7 +8044,7 @@
       <c r="F115" s="5">
         <v>579.0</v>
       </c>
-      <c r="G115" s="21">
+      <c r="G115" s="22">
         <v>23.8</v>
       </c>
       <c r="H115" s="5" t="s">
@@ -8048,16 +8052,16 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="18">
+      <c r="A116" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B116" s="18">
+      <c r="B116" s="19">
         <v>44092.0</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D116" s="22">
+      <c r="D116" s="23">
         <v>43836.0</v>
       </c>
       <c r="E116" s="5">
@@ -8066,7 +8070,7 @@
       <c r="F116" s="5">
         <v>577.0</v>
       </c>
-      <c r="G116" s="21">
+      <c r="G116" s="22">
         <v>22.2</v>
       </c>
       <c r="H116" s="5" t="s">
@@ -8074,16 +8078,16 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="18">
+      <c r="A117" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B117" s="18">
+      <c r="B117" s="19">
         <v>44092.0</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D117" s="22">
+      <c r="D117" s="23">
         <v>43836.0</v>
       </c>
       <c r="E117" s="5">
@@ -8092,7 +8096,7 @@
       <c r="F117" s="5">
         <v>583.0</v>
       </c>
-      <c r="G117" s="21">
+      <c r="G117" s="22">
         <v>22.6</v>
       </c>
       <c r="H117" s="5" t="s">
@@ -8103,16 +8107,16 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="18">
+      <c r="A118" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B118" s="18">
+      <c r="B118" s="19">
         <v>44092.0</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D118" s="22">
+      <c r="D118" s="23">
         <v>43836.0</v>
       </c>
       <c r="E118" s="5">
@@ -8121,7 +8125,7 @@
       <c r="F118" s="5">
         <v>584.0</v>
       </c>
-      <c r="G118" s="21">
+      <c r="G118" s="22">
         <v>20.4</v>
       </c>
       <c r="H118" s="5" t="s">
@@ -8129,16 +8133,16 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="18">
+      <c r="A119" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B119" s="19">
         <v>44092.0</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D119" s="22">
+      <c r="D119" s="23">
         <v>43836.0</v>
       </c>
       <c r="E119" s="5">
@@ -8147,7 +8151,7 @@
       <c r="F119" s="5">
         <v>585.0</v>
       </c>
-      <c r="G119" s="21">
+      <c r="G119" s="22">
         <v>21.8</v>
       </c>
       <c r="H119" s="5" t="s">
@@ -8155,16 +8159,16 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="18">
+      <c r="A120" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B120" s="18">
+      <c r="B120" s="19">
         <v>44092.0</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D120" s="22">
+      <c r="D120" s="23">
         <v>43836.0</v>
       </c>
       <c r="E120" s="5">
@@ -8173,7 +8177,7 @@
       <c r="F120" s="5">
         <v>586.0</v>
       </c>
-      <c r="G120" s="21">
+      <c r="G120" s="22">
         <v>19.3</v>
       </c>
       <c r="H120" s="5" t="s">
@@ -8181,16 +8185,16 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="18">
+      <c r="A121" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B121" s="18">
+      <c r="B121" s="19">
         <v>44092.0</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D121" s="22">
+      <c r="D121" s="23">
         <v>43836.0</v>
       </c>
       <c r="E121" s="5">
@@ -8199,7 +8203,7 @@
       <c r="F121" s="5">
         <v>587.0</v>
       </c>
-      <c r="G121" s="21">
+      <c r="G121" s="22">
         <v>22.0</v>
       </c>
       <c r="H121" s="5" t="s">
@@ -8254,10 +8258,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18">
+      <c r="A2" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <v>44083.0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -8280,10 +8284,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18">
+      <c r="A3" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>44083.0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -8306,10 +8310,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>44083.0</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -8332,10 +8336,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18">
+      <c r="A5" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>44083.0</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -8358,10 +8362,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18">
+      <c r="A6" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>44083.0</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -8384,10 +8388,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18">
+      <c r="A7" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>44083.0</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -8410,10 +8414,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>44083.0</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -8436,10 +8440,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18">
+      <c r="A9" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="19">
         <v>44083.0</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -8462,10 +8466,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="19">
         <v>44083.0</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -8488,10 +8492,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18">
+      <c r="A11" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <v>44083.0</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -8514,10 +8518,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>44083.0</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -8540,10 +8544,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18">
+      <c r="A13" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <v>44083.0</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -8566,10 +8570,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18">
+      <c r="A14" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="19">
         <v>44083.0</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -8592,10 +8596,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18">
+      <c r="A15" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <v>44083.0</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -8618,10 +8622,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="19">
         <v>44083.0</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -8644,10 +8648,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18">
+      <c r="A17" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="19">
         <v>44083.0</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -8670,10 +8674,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18">
+      <c r="A18" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>44083.0</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -8696,10 +8700,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18">
+      <c r="A19" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="19">
         <v>44083.0</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -8722,10 +8726,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="19">
         <v>44083.0</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -8748,10 +8752,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="19">
         <v>44083.0</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -8774,10 +8778,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="18">
+      <c r="A22" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="19">
         <v>44083.0</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -8800,10 +8804,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="18">
+      <c r="A23" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="19">
         <v>44083.0</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -8826,10 +8830,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="18">
+      <c r="A24" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="19">
         <v>44083.0</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -8852,10 +8856,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="18">
+      <c r="A25" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="19">
         <v>44083.0</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -8878,10 +8882,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="18">
+      <c r="A26" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="19">
         <v>44083.0</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -8904,10 +8908,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="18">
+      <c r="A27" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="19">
         <v>44083.0</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -8930,10 +8934,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="18">
+      <c r="A28" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="19">
         <v>44083.0</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -8956,10 +8960,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="18">
+      <c r="A29" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="19">
         <v>44083.0</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -8982,10 +8986,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="18">
+      <c r="A30" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="19">
         <v>44083.0</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -9008,10 +9012,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="18">
+      <c r="A31" s="19">
         <v>44085.0</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="19">
         <v>44083.0</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -9049,31 +9053,31 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9081,757 +9085,757 @@
       <c r="A2" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="29">
         <v>44.0</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="29">
         <v>558.0</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="29">
         <v>23.6</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3">
       <c r="A3" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="29">
         <v>23.0</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="29">
         <v>282.0</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="29">
         <v>19.8</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4">
       <c r="A4" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="29">
         <v>43.0</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <v>564.0</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="29">
         <v>21.6</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5">
       <c r="A5" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="29">
         <v>43.0</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="29">
         <v>563.0</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="29">
         <v>21.3</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6">
       <c r="A6" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="29">
         <v>43.0</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="29">
         <v>562.0</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="29">
         <v>24.0</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7">
       <c r="A7" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="29">
         <v>43.0</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="29">
         <v>561.0</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="29">
         <v>22.2</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8">
       <c r="A8" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="29">
         <v>43.0</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="29">
         <v>559.0</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="29">
         <v>21.2</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9">
       <c r="A9" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="29">
         <v>38.0</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="29">
         <v>473.0</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="29">
         <v>21.5</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10">
       <c r="A10" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="29">
         <v>38.0</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="29">
         <v>472.0</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="29">
         <v>17.5</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11">
       <c r="A11" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="29">
         <v>69.0</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="29">
         <v>211.0</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="29">
         <v>17.4</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="29"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12">
       <c r="A12" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="29">
         <v>38.0</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="29">
         <v>471.0</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="29">
         <v>20.1</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13">
       <c r="A13" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="29">
         <v>38.0</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="29">
         <v>474.0</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="29">
         <v>21.7</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14">
       <c r="A14" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="29">
         <v>39.0</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="29">
         <v>480.0</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="29">
         <v>22.2</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15">
       <c r="A15" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="29">
         <v>30.0</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="29">
         <v>528.0</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="29">
         <v>16.4</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="29"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16">
       <c r="A16" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="29">
         <v>30.0</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="29">
         <v>527.0</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="29">
         <v>17.3</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="29"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17">
       <c r="A17" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="29">
         <v>30.0</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="29">
         <v>526.0</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="29">
         <v>16.9</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="29"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18">
       <c r="A18" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="29">
         <v>30.0</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="29">
         <v>525.0</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="29">
         <v>13.8</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="29"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19">
       <c r="A19" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="29">
         <v>30.0</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="29">
         <v>524.0</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="29">
         <v>16.7</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="29"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20">
       <c r="A20" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="29">
         <v>30.0</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="29">
         <v>523.0</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="29">
         <v>12.1</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21">
       <c r="A21" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="29">
         <v>22.0</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="29">
         <v>283.0</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="29">
         <v>19.0</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22">
       <c r="A22" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="29">
         <v>31.0</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="29">
         <v>519.0</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="29">
         <v>17.7</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="29"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23">
       <c r="A23" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="29">
         <v>31.0</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="29">
         <v>518.0</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="29">
         <v>18.0</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="29"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24">
       <c r="A24" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="29">
         <v>31.0</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="29">
         <v>517.0</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="29">
         <v>16.2</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="29"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25">
       <c r="A25" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="29">
         <v>38.0</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="29">
         <v>491.0</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="29">
         <v>20.0</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="29"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26">
       <c r="A26" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="29">
         <v>38.0</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="29">
         <v>490.0</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="29">
         <v>21.6</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27">
       <c r="A27" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="29">
         <v>38.0</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="29">
         <v>489.0</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="29">
         <v>22.4</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="29"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28">
       <c r="A28" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="29">
         <v>38.0</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="29">
         <v>492.0</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="29">
         <v>20.3</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29">
       <c r="A29" s="9">
         <v>44083.0</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="27">
         <v>44085.0</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="29">
         <v>68.0</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="29">
         <v>205.0</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="29">
         <v>19.6</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="29"/>
+      <c r="I29" s="30"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9878,10 +9882,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B2" s="18">
+      <c r="A2" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B2" s="19">
         <v>44089.0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -9904,10 +9908,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B3" s="18">
+      <c r="A3" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B3" s="19">
         <v>44089.0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -9930,10 +9934,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="A4" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B4" s="19">
         <v>44089.0</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -9956,10 +9960,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="A5" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B5" s="19">
         <v>44089.0</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -9982,10 +9986,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B6" s="18">
+      <c r="A6" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B6" s="19">
         <v>44089.0</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -10008,10 +10012,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B7" s="19">
         <v>44089.0</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -10034,10 +10038,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="A8" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B8" s="19">
         <v>44089.0</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -10060,10 +10064,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="A9" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B9" s="19">
         <v>44089.0</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -10086,10 +10090,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="A10" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B10" s="19">
         <v>44089.0</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -10112,10 +10116,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B11" s="19">
         <v>44089.0</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -10138,10 +10142,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="A12" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B12" s="19">
         <v>44089.0</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -10164,10 +10168,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B13" s="19">
         <v>44089.0</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -10190,10 +10194,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="A14" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B14" s="19">
         <v>44089.0</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -10216,10 +10220,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="A15" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B15" s="19">
         <v>44089.0</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -10242,10 +10246,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B16" s="18">
+      <c r="A16" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B16" s="19">
         <v>44089.0</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -10268,10 +10272,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B17" s="18">
+      <c r="A17" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B17" s="19">
         <v>44089.0</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -10294,10 +10298,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="A18" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B18" s="19">
         <v>44089.0</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -10320,10 +10324,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B19" s="18">
+      <c r="A19" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B19" s="19">
         <v>44089.0</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -10346,10 +10350,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B20" s="18">
+      <c r="A20" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B20" s="19">
         <v>44089.0</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -10372,10 +10376,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B21" s="18">
+      <c r="A21" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B21" s="19">
         <v>44089.0</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -10401,10 +10405,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="18">
+      <c r="A22" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="19">
         <v>44089.0</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -10427,10 +10431,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="18">
+      <c r="A23" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="19">
         <v>44089.0</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -10453,10 +10457,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="18">
+      <c r="A24" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="19">
         <v>44089.0</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -10479,10 +10483,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="18">
+      <c r="A25" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="19">
         <v>44089.0</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -10505,10 +10509,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="18">
+      <c r="A26" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="19">
         <v>44089.0</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -10531,10 +10535,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="18">
+      <c r="A27" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="19">
         <v>44089.0</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -10557,10 +10561,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="18">
+      <c r="A28" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="19">
         <v>44089.0</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -10586,10 +10590,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="18">
+      <c r="A29" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="19">
         <v>44089.0</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -10612,10 +10616,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="18">
+      <c r="A30" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="19">
         <v>44089.0</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -10638,10 +10642,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="18">
+      <c r="A31" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="19">
         <v>44089.0</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -10664,10 +10668,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="18">
+      <c r="A32" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="19">
         <v>44089.0</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -10690,10 +10694,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="18">
+      <c r="A33" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="19">
         <v>44089.0</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -10716,10 +10720,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="18">
+      <c r="A34" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="19">
         <v>44089.0</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -10742,10 +10746,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="18">
+      <c r="A35" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="19">
         <v>44089.0</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -10768,10 +10772,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="18">
+      <c r="A36" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="19">
         <v>44089.0</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -10794,10 +10798,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="18">
+      <c r="A37" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="19">
         <v>44089.0</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -10820,10 +10824,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="18">
+      <c r="A38" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="19">
         <v>44089.0</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -10846,10 +10850,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="19">
         <v>44089.0</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -10872,10 +10876,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="18">
+      <c r="A40" s="19">
         <v>44083.0</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="19">
         <v>44089.0</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -10898,10 +10902,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B41" s="18">
+      <c r="A41" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B41" s="19">
         <v>44089.0</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -10924,10 +10928,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B42" s="18">
+      <c r="A42" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B42" s="19">
         <v>44089.0</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -10950,10 +10954,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B43" s="18">
+      <c r="A43" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B43" s="19">
         <v>44089.0</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -10976,10 +10980,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B44" s="18">
+      <c r="A44" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B44" s="19">
         <v>44089.0</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -11002,10 +11006,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B45" s="18">
+      <c r="A45" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B45" s="19">
         <v>44089.0</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -11028,10 +11032,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B46" s="18">
+      <c r="A46" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B46" s="19">
         <v>44089.0</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -11054,10 +11058,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B47" s="18">
+      <c r="A47" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B47" s="19">
         <v>44089.0</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -11080,10 +11084,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B48" s="18">
+      <c r="A48" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B48" s="19">
         <v>44089.0</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -11106,10 +11110,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B49" s="18">
+      <c r="A49" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B49" s="19">
         <v>44089.0</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -11132,10 +11136,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B50" s="18">
+      <c r="A50" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B50" s="19">
         <v>44089.0</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -11158,10 +11162,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B51" s="18">
+      <c r="A51" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B51" s="19">
         <v>44089.0</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -11184,10 +11188,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B52" s="18">
+      <c r="A52" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B52" s="19">
         <v>44089.0</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -11210,10 +11214,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B53" s="18">
+      <c r="A53" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B53" s="19">
         <v>44089.0</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -11239,10 +11243,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B54" s="18">
+      <c r="A54" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B54" s="19">
         <v>44089.0</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -11265,10 +11269,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B55" s="18">
+      <c r="A55" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B55" s="19">
         <v>44089.0</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -11291,10 +11295,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B56" s="18">
+      <c r="A56" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B56" s="19">
         <v>44089.0</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -11317,10 +11321,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B57" s="18">
+      <c r="A57" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B57" s="19">
         <v>44089.0</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -11343,10 +11347,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B58" s="18">
+      <c r="A58" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B58" s="19">
         <v>44089.0</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -11369,10 +11373,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B59" s="18">
+      <c r="A59" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B59" s="19">
         <v>44089.0</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -11395,10 +11399,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B60" s="18">
+      <c r="A60" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B60" s="19">
         <v>44089.0</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -11421,10 +11425,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B61" s="18">
+      <c r="A61" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B61" s="19">
         <v>44089.0</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -11447,10 +11451,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B62" s="18">
+      <c r="A62" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B62" s="19">
         <v>44089.0</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -11473,10 +11477,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B63" s="18">
+      <c r="A63" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B63" s="19">
         <v>44089.0</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -11499,10 +11503,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B64" s="18">
+      <c r="A64" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B64" s="19">
         <v>44089.0</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -11525,10 +11529,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B65" s="18">
+      <c r="A65" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B65" s="19">
         <v>44089.0</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -11551,10 +11555,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B66" s="18">
+      <c r="A66" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B66" s="19">
         <v>44089.0</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -11577,10 +11581,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B67" s="18">
+      <c r="A67" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B67" s="19">
         <v>44089.0</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -11603,10 +11607,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B68" s="18">
+      <c r="A68" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B68" s="19">
         <v>44089.0</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -11629,10 +11633,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B69" s="18">
+      <c r="A69" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B69" s="19">
         <v>44089.0</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -11655,10 +11659,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B70" s="18">
+      <c r="A70" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B70" s="19">
         <v>44089.0</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -11681,10 +11685,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B71" s="18">
+      <c r="A71" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B71" s="19">
         <v>44089.0</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -11707,10 +11711,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B72" s="18">
+      <c r="A72" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B72" s="19">
         <v>44089.0</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -11733,10 +11737,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B73" s="18">
+      <c r="A73" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B73" s="19">
         <v>44089.0</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -11759,10 +11763,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B74" s="18">
+      <c r="A74" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B74" s="19">
         <v>44089.0</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -11785,10 +11789,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B75" s="18">
+      <c r="A75" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B75" s="19">
         <v>44089.0</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -11811,10 +11815,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B76" s="18">
+      <c r="A76" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B76" s="19">
         <v>44089.0</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -11837,10 +11841,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B77" s="18">
+      <c r="A77" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B77" s="19">
         <v>44089.0</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -11863,10 +11867,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B78" s="18">
+      <c r="A78" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B78" s="19">
         <v>44089.0</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -11889,10 +11893,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B79" s="18">
+      <c r="A79" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B79" s="19">
         <v>44089.0</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -11915,10 +11919,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B80" s="18">
+      <c r="A80" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B80" s="19">
         <v>44089.0</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -11941,10 +11945,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B81" s="18">
+      <c r="A81" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B81" s="19">
         <v>44089.0</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -11967,10 +11971,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B82" s="18">
+      <c r="A82" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B82" s="19">
         <v>44089.0</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -11993,10 +11997,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B83" s="18">
+      <c r="A83" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B83" s="19">
         <v>44089.0</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -12019,10 +12023,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B84" s="18">
+      <c r="A84" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B84" s="19">
         <v>44089.0</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -12048,10 +12052,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B85" s="18">
+      <c r="A85" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B85" s="19">
         <v>44089.0</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -12074,10 +12078,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B86" s="18">
+      <c r="A86" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B86" s="19">
         <v>44089.0</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -12100,10 +12104,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B87" s="18">
+      <c r="A87" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B87" s="19">
         <v>44089.0</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -12126,10 +12130,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B88" s="18">
+      <c r="A88" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B88" s="19">
         <v>44089.0</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -12152,10 +12156,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B89" s="18">
+      <c r="A89" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B89" s="19">
         <v>44089.0</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -12178,10 +12182,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B90" s="18">
+      <c r="A90" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B90" s="19">
         <v>44089.0</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -12204,10 +12208,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="18">
-        <v>44084.0</v>
-      </c>
-      <c r="B91" s="18">
+      <c r="A91" s="19">
+        <v>44084.0</v>
+      </c>
+      <c r="B91" s="19">
         <v>44089.0</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -12230,10 +12234,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B92" s="18">
+      <c r="A92" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B92" s="19">
         <v>44091.0</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -12256,10 +12260,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B93" s="18">
+      <c r="A93" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B93" s="19">
         <v>44091.0</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -12282,10 +12286,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B94" s="18">
+      <c r="A94" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B94" s="19">
         <v>44091.0</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -12308,10 +12312,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B95" s="18">
+      <c r="A95" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B95" s="19">
         <v>44091.0</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -12337,10 +12341,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B96" s="18">
+      <c r="A96" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B96" s="19">
         <v>44091.0</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -12363,10 +12367,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B97" s="18">
+      <c r="A97" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B97" s="19">
         <v>44091.0</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -12392,10 +12396,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B98" s="18">
+      <c r="A98" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B98" s="19">
         <v>44091.0</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -12418,10 +12422,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B99" s="18">
+      <c r="A99" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B99" s="19">
         <v>44091.0</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -12444,10 +12448,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B100" s="18">
+      <c r="A100" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B100" s="19">
         <v>44091.0</v>
       </c>
       <c r="C100" s="5" t="s">
@@ -12470,10 +12474,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B101" s="18">
+      <c r="A101" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B101" s="19">
         <v>44091.0</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -12496,10 +12500,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B102" s="18">
+      <c r="A102" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B102" s="19">
         <v>44091.0</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -12525,10 +12529,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B103" s="18">
+      <c r="A103" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B103" s="19">
         <v>44091.0</v>
       </c>
       <c r="C103" s="5" t="s">
@@ -12551,10 +12555,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B104" s="18">
+      <c r="A104" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B104" s="19">
         <v>44091.0</v>
       </c>
       <c r="C104" s="5" t="s">
@@ -12577,10 +12581,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B105" s="18">
+      <c r="A105" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B105" s="19">
         <v>44091.0</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -12603,10 +12607,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B106" s="18">
+      <c r="A106" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B106" s="19">
         <v>44091.0</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -12632,10 +12636,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B107" s="18">
+      <c r="A107" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B107" s="19">
         <v>44091.0</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -12661,10 +12665,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B108" s="18">
+      <c r="A108" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B108" s="19">
         <v>44091.0</v>
       </c>
       <c r="C108" s="5" t="s">
@@ -12690,10 +12694,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B109" s="18">
+      <c r="A109" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B109" s="19">
         <v>44091.0</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -12719,10 +12723,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B110" s="18">
+      <c r="A110" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B110" s="19">
         <v>44091.0</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -12745,10 +12749,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B111" s="18">
+      <c r="A111" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B111" s="19">
         <v>44091.0</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -12771,10 +12775,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B112" s="18">
+      <c r="A112" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B112" s="19">
         <v>44091.0</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -12800,10 +12804,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B113" s="18">
+      <c r="A113" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B113" s="19">
         <v>44091.0</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -12826,10 +12830,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B114" s="18">
+      <c r="A114" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B114" s="19">
         <v>44091.0</v>
       </c>
       <c r="C114" s="5" t="s">
@@ -12855,10 +12859,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B115" s="18">
+      <c r="A115" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B115" s="19">
         <v>44091.0</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -12881,10 +12885,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B116" s="18">
+      <c r="A116" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B116" s="19">
         <v>44091.0</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -12910,10 +12914,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="18">
+      <c r="A117" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B117" s="18">
+      <c r="B117" s="19">
         <v>44091.0</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -12939,10 +12943,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B118" s="18">
+      <c r="A118" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B118" s="19">
         <v>44091.0</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -12965,10 +12969,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B119" s="18">
+      <c r="A119" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B119" s="19">
         <v>44091.0</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -12991,10 +12995,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B120" s="18">
+      <c r="A120" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B120" s="19">
         <v>44091.0</v>
       </c>
       <c r="C120" s="5" t="s">
@@ -13020,10 +13024,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B121" s="18">
+      <c r="A121" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B121" s="19">
         <v>44091.0</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -13046,10 +13050,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B122" s="18">
+      <c r="A122" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B122" s="19">
         <v>44091.0</v>
       </c>
       <c r="C122" s="5" t="s">
@@ -13072,10 +13076,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B123" s="18">
+      <c r="A123" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B123" s="19">
         <v>44091.0</v>
       </c>
       <c r="C123" s="5" t="s">
@@ -13098,10 +13102,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B124" s="18">
+      <c r="A124" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B124" s="19">
         <v>44091.0</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -13124,10 +13128,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B125" s="18">
+      <c r="A125" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B125" s="19">
         <v>44091.0</v>
       </c>
       <c r="C125" s="5" t="s">
@@ -13150,10 +13154,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B126" s="18">
+      <c r="A126" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B126" s="19">
         <v>44091.0</v>
       </c>
       <c r="C126" s="5" t="s">
@@ -13176,10 +13180,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B127" s="18">
+      <c r="A127" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B127" s="19">
         <v>44091.0</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -13205,10 +13209,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B128" s="18">
+      <c r="A128" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B128" s="19">
         <v>44091.0</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -13231,10 +13235,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B129" s="18">
+      <c r="A129" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B129" s="19">
         <v>44091.0</v>
       </c>
       <c r="C129" s="5" t="s">
@@ -13260,10 +13264,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B130" s="18">
+      <c r="A130" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B130" s="19">
         <v>44091.0</v>
       </c>
       <c r="C130" s="5" t="s">
@@ -13286,10 +13290,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B131" s="18">
+      <c r="A131" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B131" s="19">
         <v>44091.0</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -13315,10 +13319,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B132" s="18">
+      <c r="A132" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B132" s="19">
         <v>44091.0</v>
       </c>
       <c r="C132" s="5" t="s">
@@ -13344,10 +13348,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B133" s="18">
+      <c r="A133" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B133" s="19">
         <v>44091.0</v>
       </c>
       <c r="C133" s="5" t="s">
@@ -13370,10 +13374,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B134" s="18">
+      <c r="A134" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B134" s="19">
         <v>44091.0</v>
       </c>
       <c r="C134" s="5" t="s">
@@ -13399,10 +13403,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B135" s="18">
+      <c r="A135" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B135" s="19">
         <v>44091.0</v>
       </c>
       <c r="C135" s="5" t="s">
@@ -13428,10 +13432,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B136" s="18">
+      <c r="A136" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B136" s="19">
         <v>44091.0</v>
       </c>
       <c r="C136" s="5" t="s">
@@ -13457,10 +13461,10 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B137" s="18">
+      <c r="A137" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B137" s="19">
         <v>44091.0</v>
       </c>
       <c r="C137" s="5" t="s">
@@ -13486,10 +13490,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B138" s="18">
+      <c r="A138" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B138" s="19">
         <v>44091.0</v>
       </c>
       <c r="C138" s="5" t="s">
@@ -13515,10 +13519,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B139" s="18">
+      <c r="A139" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B139" s="19">
         <v>44091.0</v>
       </c>
       <c r="C139" s="5" t="s">
@@ -13541,10 +13545,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B140" s="18">
+      <c r="A140" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B140" s="19">
         <v>44091.0</v>
       </c>
       <c r="C140" s="5" t="s">
@@ -13570,10 +13574,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="18">
+      <c r="A141" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B141" s="18">
+      <c r="B141" s="19">
         <v>44091.0</v>
       </c>
       <c r="C141" s="5" t="s">
@@ -13596,10 +13600,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B142" s="18">
+      <c r="A142" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B142" s="19">
         <v>44091.0</v>
       </c>
       <c r="C142" s="5" t="s">
@@ -13625,10 +13629,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="18">
+      <c r="A143" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B143" s="18">
+      <c r="B143" s="19">
         <v>44091.0</v>
       </c>
       <c r="C143" s="5" t="s">
@@ -13651,10 +13655,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="18">
+      <c r="A144" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B144" s="18">
+      <c r="B144" s="19">
         <v>44091.0</v>
       </c>
       <c r="C144" s="5" t="s">
@@ -13680,10 +13684,10 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="18">
+      <c r="A145" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B145" s="18">
+      <c r="B145" s="19">
         <v>44091.0</v>
       </c>
       <c r="C145" s="5" t="s">
@@ -13706,10 +13710,10 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="18">
+      <c r="A146" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B146" s="18">
+      <c r="B146" s="19">
         <v>44091.0</v>
       </c>
       <c r="C146" s="5" t="s">
@@ -13732,10 +13736,10 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="18">
+      <c r="A147" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B147" s="18">
+      <c r="B147" s="19">
         <v>44091.0</v>
       </c>
       <c r="C147" s="5" t="s">
@@ -13758,10 +13762,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="18">
+      <c r="A148" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B148" s="18">
+      <c r="B148" s="19">
         <v>44091.0</v>
       </c>
       <c r="C148" s="5" t="s">
@@ -13784,10 +13788,10 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="18">
+      <c r="A149" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B149" s="18">
+      <c r="B149" s="19">
         <v>44091.0</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -13810,10 +13814,10 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="18">
+      <c r="A150" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B150" s="18">
+      <c r="B150" s="19">
         <v>44091.0</v>
       </c>
       <c r="C150" s="5" t="s">
@@ -13836,10 +13840,10 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="18">
+      <c r="A151" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B151" s="18">
+      <c r="B151" s="19">
         <v>44091.0</v>
       </c>
       <c r="C151" s="5" t="s">
@@ -13862,10 +13866,10 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="18">
+      <c r="A152" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B152" s="18">
+      <c r="B152" s="19">
         <v>44091.0</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -13888,10 +13892,10 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="18">
+      <c r="A153" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B153" s="18">
+      <c r="B153" s="19">
         <v>44091.0</v>
       </c>
       <c r="C153" s="5" t="s">
@@ -13914,10 +13918,10 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="18">
+      <c r="A154" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B154" s="18">
+      <c r="B154" s="19">
         <v>44091.0</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -13940,10 +13944,10 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="18">
+      <c r="A155" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B155" s="18">
+      <c r="B155" s="19">
         <v>44091.0</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -13966,10 +13970,10 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="18">
+      <c r="A156" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B156" s="18">
+      <c r="B156" s="19">
         <v>44091.0</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -13992,10 +13996,10 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="18">
+      <c r="A157" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B157" s="18">
+      <c r="B157" s="19">
         <v>44091.0</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -14018,10 +14022,10 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="18">
+      <c r="A158" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B158" s="18">
+      <c r="B158" s="19">
         <v>44091.0</v>
       </c>
       <c r="C158" s="5" t="s">
@@ -14044,10 +14048,10 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="18">
+      <c r="A159" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B159" s="18">
+      <c r="B159" s="19">
         <v>44091.0</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -14073,10 +14077,10 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B160" s="18">
+      <c r="A160" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B160" s="19">
         <v>44091.0</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -14099,10 +14103,10 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="18">
+      <c r="A161" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B161" s="18">
+      <c r="B161" s="19">
         <v>44091.0</v>
       </c>
       <c r="C161" s="5" t="s">
@@ -14125,10 +14129,10 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="18">
+      <c r="A162" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B162" s="18">
+      <c r="B162" s="19">
         <v>44091.0</v>
       </c>
       <c r="C162" s="5" t="s">
@@ -14154,10 +14158,10 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="18">
+      <c r="A163" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B163" s="18">
+      <c r="B163" s="19">
         <v>44091.0</v>
       </c>
       <c r="C163" s="5" t="s">
@@ -14180,10 +14184,10 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="18">
+      <c r="A164" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B164" s="18">
+      <c r="B164" s="19">
         <v>44091.0</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -14206,10 +14210,10 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="18">
+      <c r="A165" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B165" s="18">
+      <c r="B165" s="19">
         <v>44091.0</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -14235,10 +14239,10 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="18">
+      <c r="A166" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B166" s="18">
+      <c r="B166" s="19">
         <v>44091.0</v>
       </c>
       <c r="C166" s="5" t="s">
@@ -14261,10 +14265,10 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="18">
+      <c r="A167" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B167" s="18">
+      <c r="B167" s="19">
         <v>44091.0</v>
       </c>
       <c r="C167" s="5" t="s">
@@ -14287,10 +14291,10 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="18">
+      <c r="A168" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B168" s="18">
+      <c r="B168" s="19">
         <v>44091.0</v>
       </c>
       <c r="C168" s="5" t="s">
@@ -14313,10 +14317,10 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="18">
+      <c r="A169" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B169" s="18">
+      <c r="B169" s="19">
         <v>44091.0</v>
       </c>
       <c r="C169" s="5" t="s">
@@ -14339,10 +14343,10 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="18">
+      <c r="A170" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B170" s="18">
+      <c r="B170" s="19">
         <v>44091.0</v>
       </c>
       <c r="C170" s="5" t="s">
@@ -14365,10 +14369,10 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="18">
+      <c r="A171" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B171" s="18">
+      <c r="B171" s="19">
         <v>44091.0</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -14391,10 +14395,10 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="18">
+      <c r="A172" s="19">
         <v>44088.0</v>
       </c>
-      <c r="B172" s="18">
+      <c r="B172" s="19">
         <v>44091.0</v>
       </c>
       <c r="C172" s="5" t="s">
@@ -14417,10 +14421,10 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B173" s="18">
+      <c r="A173" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B173" s="19">
         <v>44091.0</v>
       </c>
       <c r="C173" s="5" t="s">
@@ -14443,10 +14447,10 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B174" s="18">
+      <c r="A174" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B174" s="19">
         <v>44091.0</v>
       </c>
       <c r="C174" s="5" t="s">
@@ -14469,10 +14473,10 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B175" s="18">
+      <c r="A175" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B175" s="19">
         <v>44091.0</v>
       </c>
       <c r="C175" s="5" t="s">
@@ -14495,10 +14499,10 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B176" s="18">
+      <c r="A176" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B176" s="19">
         <v>44091.0</v>
       </c>
       <c r="C176" s="5" t="s">
@@ -14521,10 +14525,10 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B177" s="18">
+      <c r="A177" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B177" s="19">
         <v>44091.0</v>
       </c>
       <c r="C177" s="5" t="s">
@@ -14547,10 +14551,10 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B178" s="18">
+      <c r="A178" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B178" s="19">
         <v>44091.0</v>
       </c>
       <c r="C178" s="5" t="s">
@@ -14573,10 +14577,10 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B179" s="18">
+      <c r="A179" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B179" s="19">
         <v>44091.0</v>
       </c>
       <c r="C179" s="5" t="s">
@@ -14599,10 +14603,10 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="18">
-        <v>44089.0</v>
-      </c>
-      <c r="B180" s="18">
+      <c r="A180" s="19">
+        <v>44089.0</v>
+      </c>
+      <c r="B180" s="19">
         <v>44091.0</v>
       </c>
       <c r="C180" s="5" t="s">
